--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshihiko Miyaichi\Documents\UiPath\ReFramework-Template-Folder-Transaction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12764883-80ED-412A-A88A-F8BDE419D9FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2572DB2-AD75-40A5-A115-9D885CB959A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18203" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="7553" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -156,11 +156,10 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
+    <t>Framework</t>
+  </si>
+  <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
-  </si>
-  <si>
-    <t>ReFramework-Template-Folder-Transaction</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>FolderPath</t>
@@ -176,6 +175,14 @@
   </si>
   <si>
     <t>*.*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ArchivePath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Archive</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -549,7 +556,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -599,32 +606,39 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1625,7 +1639,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2832,7 +2846,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
